--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/ExportRawMaterialIngList.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/ExportRawMaterialIngList.xlsx
@@ -5,13 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="476" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Produits" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Liste des ing" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -311,20 +316,20 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0102040816326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5867346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.8979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.5867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.3112244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -406,26 +411,26 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="17.15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6785714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.7959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8316326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.9642857142857"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.5204081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.6275510204082"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="44" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="7.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -433,12 +438,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="88.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -468,7 +473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>10</v>
       </c>

--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/ExportRawMaterialIngList.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/ExportRawMaterialIngList.xlsx
@@ -5,16 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Produits" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Liste des ing" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Liste des ing'!$B$3:$K$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Produits!$B$3:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Produits!$B$3:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Liste des ing'!$B$3:$K$3</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -144,7 +150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -165,6 +171,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -228,11 +242,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -308,6 +322,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -316,20 +338,20 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L39" activeCellId="0" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -393,6 +415,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B3:H3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -400,6 +423,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -411,23 +435,23 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="7.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -509,6 +533,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B3:K3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -516,5 +541,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>